--- a/target/Reservas.xlsx
+++ b/target/Reservas.xlsx
@@ -17,7 +17,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>3015</t>
+    <t>3040</t>
   </si>
 </sst>
 </file>

--- a/target/Reservas.xlsx
+++ b/target/Reservas.xlsx
@@ -17,7 +17,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>3040</t>
+    <t>3084</t>
   </si>
 </sst>
 </file>
